--- a/Data/appData/LagerNeu.xlsx
+++ b/Data/appData/LagerNeu.xlsx
@@ -1,26 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwolf/Python/IPYNB/Value_stream/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF01D80-342D-154B-8537-AC02B9B5CEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AA52A-5ED6-9A46-A066-25F465BF95A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle1!$B$1:$B$24</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="189">
   <si>
     <t>Stellplatz</t>
   </si>
@@ -556,25 +573,37 @@
     <t>R07-23</t>
   </si>
   <si>
+    <t>Gangwechsel 1</t>
+  </si>
+  <si>
+    <t>Gangwechsel 2</t>
+  </si>
+  <si>
     <t>Gangwechsel 3</t>
   </si>
   <si>
+    <t>Gangwechsel 4</t>
+  </si>
+  <si>
     <t>Gangwechsel 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Gangwechsel 1 </t>
-  </si>
-  <si>
-    <t>Gangwechsel 2</t>
-  </si>
-  <si>
-    <t>Gangwechsel 4</t>
-  </si>
-  <si>
     <t>Gangwechsel 6</t>
   </si>
   <si>
     <t>Gangwechsel 7</t>
+  </si>
+  <si>
+    <t>Gangwechsel 0</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>Backup X</t>
+  </si>
+  <si>
+    <t>Backup Y</t>
   </si>
 </sst>
 </file>
@@ -592,25 +621,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -620,28 +656,66 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -734,6 +808,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -768,6 +843,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -791,7 +867,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -802,31 +877,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -848,7 +923,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -906,7 +981,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -919,13 +994,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -944,18 +1018,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G169"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AF170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,17 +1048,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -991,17 +1077,23 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <v>2340</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="8">
+        <v>830</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1014,17 +1106,23 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>2240</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="8">
+        <v>830</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1037,17 +1135,23 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>2140</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="8">
+        <v>830</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1060,17 +1164,23 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>2040</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="8">
+        <v>830</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1083,17 +1193,23 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>1940</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="8">
+        <v>830</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1106,17 +1222,23 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>1840</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="8">
+        <v>830</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1129,17 +1251,23 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>1740</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="8">
+        <v>830</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1152,17 +1280,23 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>1640</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="8">
+        <v>830</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1175,17 +1309,23 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9">
         <v>1540</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="8">
+        <v>830</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1198,17 +1338,23 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>1440</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="8">
+        <v>830</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1221,17 +1367,23 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>1340</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="8">
+        <v>830</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1244,17 +1396,23 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>1240</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="8">
+        <v>830</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1267,17 +1425,23 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <v>1140</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="8">
+        <v>830</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1290,17 +1454,23 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>14</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <v>1040</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="8">
+        <v>830</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1313,17 +1483,23 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>15</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="9">
         <v>940</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="8">
+        <v>830</v>
+      </c>
+      <c r="I16" s="9">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1336,17 +1512,23 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>16</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
         <v>840</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="8">
+        <v>830</v>
+      </c>
+      <c r="I17" s="9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1359,17 +1541,23 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <v>740</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="8">
+        <v>830</v>
+      </c>
+      <c r="I18" s="9">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1382,17 +1570,23 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>18</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <v>640</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="8">
+        <v>830</v>
+      </c>
+      <c r="I19" s="9">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1405,17 +1599,23 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>19</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="9">
         <v>540</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="8">
+        <v>830</v>
+      </c>
+      <c r="I20" s="9">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1428,17 +1628,23 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>20</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="9">
         <v>440</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="8">
+        <v>830</v>
+      </c>
+      <c r="I21" s="9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1451,17 +1657,23 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>21</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="9">
         <v>340</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="8">
+        <v>830</v>
+      </c>
+      <c r="I22" s="9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1474,17 +1686,23 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>22</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="9">
         <v>240</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="8">
+        <v>830</v>
+      </c>
+      <c r="I23" s="9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1497,17 +1715,23 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>23</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="9">
         <v>140</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>830</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="8">
+        <v>830</v>
+      </c>
+      <c r="I24" s="9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1520,17 +1744,23 @@
       <c r="D25" t="s">
         <v>35</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
+        <v>140</v>
+      </c>
+      <c r="G25" s="3">
+        <v>700</v>
+      </c>
+      <c r="H25" s="8">
+        <v>700</v>
+      </c>
+      <c r="I25" s="9">
         <v>2340</v>
       </c>
-      <c r="G25">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1543,17 +1773,23 @@
       <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
+        <v>240</v>
+      </c>
+      <c r="G26" s="3">
+        <v>700</v>
+      </c>
+      <c r="H26" s="8">
+        <v>700</v>
+      </c>
+      <c r="I26" s="9">
         <v>2240</v>
       </c>
-      <c r="G26">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1566,17 +1802,23 @@
       <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
+        <v>340</v>
+      </c>
+      <c r="G27" s="3">
+        <v>700</v>
+      </c>
+      <c r="H27" s="8">
+        <v>700</v>
+      </c>
+      <c r="I27" s="9">
         <v>2140</v>
       </c>
-      <c r="G27">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1589,17 +1831,23 @@
       <c r="D28" t="s">
         <v>35</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
+        <v>440</v>
+      </c>
+      <c r="G28" s="3">
+        <v>700</v>
+      </c>
+      <c r="H28" s="8">
+        <v>700</v>
+      </c>
+      <c r="I28" s="9">
         <v>2040</v>
       </c>
-      <c r="G28">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1612,17 +1860,23 @@
       <c r="D29" t="s">
         <v>35</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>5</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
+        <v>540</v>
+      </c>
+      <c r="G29" s="3">
+        <v>700</v>
+      </c>
+      <c r="H29" s="8">
+        <v>700</v>
+      </c>
+      <c r="I29" s="9">
         <v>1940</v>
       </c>
-      <c r="G29">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1635,17 +1889,23 @@
       <c r="D30" t="s">
         <v>35</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>6</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
+        <v>640</v>
+      </c>
+      <c r="G30" s="3">
+        <v>700</v>
+      </c>
+      <c r="H30" s="8">
+        <v>700</v>
+      </c>
+      <c r="I30" s="9">
         <v>1840</v>
       </c>
-      <c r="G30">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1658,17 +1918,23 @@
       <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>7</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
+        <v>740</v>
+      </c>
+      <c r="G31" s="3">
+        <v>700</v>
+      </c>
+      <c r="H31" s="8">
+        <v>700</v>
+      </c>
+      <c r="I31" s="9">
         <v>1740</v>
       </c>
-      <c r="G31">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1681,17 +1947,23 @@
       <c r="D32" t="s">
         <v>35</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>8</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
+        <v>840</v>
+      </c>
+      <c r="G32" s="3">
+        <v>700</v>
+      </c>
+      <c r="H32" s="8">
+        <v>700</v>
+      </c>
+      <c r="I32" s="9">
         <v>1640</v>
       </c>
-      <c r="G32">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1704,17 +1976,23 @@
       <c r="D33" t="s">
         <v>35</v>
       </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="3">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3">
+        <v>940</v>
+      </c>
+      <c r="G33" s="3">
+        <v>700</v>
+      </c>
+      <c r="H33" s="8">
+        <v>700</v>
+      </c>
+      <c r="I33" s="9">
         <v>1540</v>
       </c>
-      <c r="G33">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1727,17 +2005,23 @@
       <c r="D34" t="s">
         <v>35</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>10</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
+        <v>1040</v>
+      </c>
+      <c r="G34" s="3">
+        <v>700</v>
+      </c>
+      <c r="H34" s="8">
+        <v>700</v>
+      </c>
+      <c r="I34" s="9">
         <v>1440</v>
       </c>
-      <c r="G34">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1750,17 +2034,23 @@
       <c r="D35" t="s">
         <v>35</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>11</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
+        <v>1140</v>
+      </c>
+      <c r="G35" s="3">
+        <v>700</v>
+      </c>
+      <c r="H35" s="8">
+        <v>700</v>
+      </c>
+      <c r="I35" s="9">
         <v>1340</v>
       </c>
-      <c r="G35">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1773,17 +2063,23 @@
       <c r="D36" t="s">
         <v>35</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>12</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>1240</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="8">
+        <v>700</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1796,17 +2092,23 @@
       <c r="D37" t="s">
         <v>35</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>13</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
+        <v>1340</v>
+      </c>
+      <c r="G37" s="3">
+        <v>700</v>
+      </c>
+      <c r="H37" s="8">
+        <v>700</v>
+      </c>
+      <c r="I37" s="9">
         <v>1140</v>
       </c>
-      <c r="G37">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1819,17 +2121,23 @@
       <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>14</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
+        <v>1440</v>
+      </c>
+      <c r="G38" s="3">
+        <v>700</v>
+      </c>
+      <c r="H38" s="8">
+        <v>700</v>
+      </c>
+      <c r="I38" s="9">
         <v>1040</v>
       </c>
-      <c r="G38">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1842,17 +2150,23 @@
       <c r="D39" t="s">
         <v>35</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>15</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
+        <v>1540</v>
+      </c>
+      <c r="G39" s="3">
+        <v>700</v>
+      </c>
+      <c r="H39" s="8">
+        <v>700</v>
+      </c>
+      <c r="I39" s="9">
         <v>940</v>
       </c>
-      <c r="G39">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1865,17 +2179,23 @@
       <c r="D40" t="s">
         <v>35</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>16</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
+        <v>1640</v>
+      </c>
+      <c r="G40" s="3">
+        <v>700</v>
+      </c>
+      <c r="H40" s="8">
+        <v>700</v>
+      </c>
+      <c r="I40" s="9">
         <v>840</v>
       </c>
-      <c r="G40">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1888,17 +2208,23 @@
       <c r="D41" t="s">
         <v>35</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>17</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
+        <v>1740</v>
+      </c>
+      <c r="G41" s="3">
+        <v>700</v>
+      </c>
+      <c r="H41" s="8">
+        <v>700</v>
+      </c>
+      <c r="I41" s="9">
         <v>740</v>
       </c>
-      <c r="G41">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1911,17 +2237,23 @@
       <c r="D42" t="s">
         <v>35</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>18</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
+        <v>1840</v>
+      </c>
+      <c r="G42" s="3">
+        <v>700</v>
+      </c>
+      <c r="H42" s="8">
+        <v>700</v>
+      </c>
+      <c r="I42" s="9">
         <v>640</v>
       </c>
-      <c r="G42">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1934,17 +2266,23 @@
       <c r="D43" t="s">
         <v>35</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>19</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
+        <v>1940</v>
+      </c>
+      <c r="G43" s="3">
+        <v>700</v>
+      </c>
+      <c r="H43" s="8">
+        <v>700</v>
+      </c>
+      <c r="I43" s="9">
         <v>540</v>
       </c>
-      <c r="G43">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1957,17 +2295,23 @@
       <c r="D44" t="s">
         <v>35</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>20</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G44" s="3">
+        <v>700</v>
+      </c>
+      <c r="H44" s="8">
+        <v>700</v>
+      </c>
+      <c r="I44" s="9">
         <v>440</v>
       </c>
-      <c r="G44">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1980,17 +2324,23 @@
       <c r="D45" t="s">
         <v>35</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>21</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
+        <v>2140</v>
+      </c>
+      <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="8">
+        <v>700</v>
+      </c>
+      <c r="I45" s="9">
         <v>340</v>
       </c>
-      <c r="G45">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2003,17 +2353,23 @@
       <c r="D46" t="s">
         <v>35</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>22</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
+        <v>2240</v>
+      </c>
+      <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="8">
+        <v>700</v>
+      </c>
+      <c r="I46" s="9">
         <v>240</v>
       </c>
-      <c r="G46">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2026,17 +2382,23 @@
       <c r="D47" t="s">
         <v>35</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>23</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
+        <v>2340</v>
+      </c>
+      <c r="G47" s="3">
+        <v>700</v>
+      </c>
+      <c r="H47" s="8">
+        <v>700</v>
+      </c>
+      <c r="I47" s="9">
         <v>140</v>
       </c>
-      <c r="G47">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2049,17 +2411,23 @@
       <c r="D48" t="s">
         <v>59</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>1</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
+        <v>140</v>
+      </c>
+      <c r="G48" s="3">
+        <v>650</v>
+      </c>
+      <c r="H48" s="8">
+        <v>650</v>
+      </c>
+      <c r="I48" s="9">
         <v>2340</v>
       </c>
-      <c r="G48">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2072,17 +2440,23 @@
       <c r="D49" t="s">
         <v>59</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>2</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
+        <v>240</v>
+      </c>
+      <c r="G49" s="3">
+        <v>650</v>
+      </c>
+      <c r="H49" s="8">
+        <v>650</v>
+      </c>
+      <c r="I49" s="9">
         <v>2240</v>
       </c>
-      <c r="G49">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2095,17 +2469,23 @@
       <c r="D50" t="s">
         <v>59</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>3</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
+        <v>340</v>
+      </c>
+      <c r="G50" s="3">
+        <v>650</v>
+      </c>
+      <c r="H50" s="8">
+        <v>650</v>
+      </c>
+      <c r="I50" s="9">
         <v>2140</v>
       </c>
-      <c r="G50">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2118,17 +2498,23 @@
       <c r="D51" t="s">
         <v>59</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>4</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
+        <v>440</v>
+      </c>
+      <c r="G51" s="3">
+        <v>650</v>
+      </c>
+      <c r="H51" s="8">
+        <v>650</v>
+      </c>
+      <c r="I51" s="9">
         <v>2040</v>
       </c>
-      <c r="G51">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2141,17 +2527,23 @@
       <c r="D52" t="s">
         <v>59</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>5</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
+        <v>540</v>
+      </c>
+      <c r="G52" s="3">
+        <v>650</v>
+      </c>
+      <c r="H52" s="8">
+        <v>650</v>
+      </c>
+      <c r="I52" s="9">
         <v>1940</v>
       </c>
-      <c r="G52">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2164,17 +2556,23 @@
       <c r="D53" t="s">
         <v>59</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>6</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
+        <v>640</v>
+      </c>
+      <c r="G53" s="3">
+        <v>650</v>
+      </c>
+      <c r="H53" s="8">
+        <v>650</v>
+      </c>
+      <c r="I53" s="9">
         <v>1840</v>
       </c>
-      <c r="G53">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2187,17 +2585,23 @@
       <c r="D54" t="s">
         <v>59</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>7</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
+        <v>740</v>
+      </c>
+      <c r="G54" s="3">
+        <v>650</v>
+      </c>
+      <c r="H54" s="8">
+        <v>650</v>
+      </c>
+      <c r="I54" s="9">
         <v>1740</v>
       </c>
-      <c r="G54">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2210,17 +2614,23 @@
       <c r="D55" t="s">
         <v>59</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>8</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
+        <v>840</v>
+      </c>
+      <c r="G55" s="3">
+        <v>650</v>
+      </c>
+      <c r="H55" s="8">
+        <v>650</v>
+      </c>
+      <c r="I55" s="9">
         <v>1640</v>
       </c>
-      <c r="G55">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -2233,17 +2643,23 @@
       <c r="D56" t="s">
         <v>59</v>
       </c>
-      <c r="E56">
-        <v>9</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="3">
+        <v>9</v>
+      </c>
+      <c r="F56" s="3">
+        <v>940</v>
+      </c>
+      <c r="G56" s="3">
+        <v>650</v>
+      </c>
+      <c r="H56" s="8">
+        <v>650</v>
+      </c>
+      <c r="I56" s="9">
         <v>1540</v>
       </c>
-      <c r="G56">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -2256,17 +2672,23 @@
       <c r="D57" t="s">
         <v>59</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>10</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
+        <v>1040</v>
+      </c>
+      <c r="G57" s="3">
+        <v>650</v>
+      </c>
+      <c r="H57" s="8">
+        <v>650</v>
+      </c>
+      <c r="I57" s="9">
         <v>1440</v>
       </c>
-      <c r="G57">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -2279,17 +2701,23 @@
       <c r="D58" t="s">
         <v>59</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>11</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
+        <v>1140</v>
+      </c>
+      <c r="G58" s="3">
+        <v>650</v>
+      </c>
+      <c r="H58" s="8">
+        <v>650</v>
+      </c>
+      <c r="I58" s="9">
         <v>1340</v>
       </c>
-      <c r="G58">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -2302,17 +2730,23 @@
       <c r="D59" t="s">
         <v>59</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>12</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>1240</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>650</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" s="8">
+        <v>650</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -2325,17 +2759,23 @@
       <c r="D60" t="s">
         <v>59</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>13</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
+        <v>1340</v>
+      </c>
+      <c r="G60" s="3">
+        <v>650</v>
+      </c>
+      <c r="H60" s="8">
+        <v>650</v>
+      </c>
+      <c r="I60" s="9">
         <v>1140</v>
       </c>
-      <c r="G60">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -2348,17 +2788,23 @@
       <c r="D61" t="s">
         <v>59</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>14</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
+        <v>1440</v>
+      </c>
+      <c r="G61" s="3">
+        <v>650</v>
+      </c>
+      <c r="H61" s="8">
+        <v>650</v>
+      </c>
+      <c r="I61" s="9">
         <v>1040</v>
       </c>
-      <c r="G61">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -2371,17 +2817,23 @@
       <c r="D62" t="s">
         <v>59</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>15</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
+        <v>1540</v>
+      </c>
+      <c r="G62" s="3">
+        <v>650</v>
+      </c>
+      <c r="H62" s="8">
+        <v>650</v>
+      </c>
+      <c r="I62" s="9">
         <v>940</v>
       </c>
-      <c r="G62">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -2394,17 +2846,23 @@
       <c r="D63" t="s">
         <v>59</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>16</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
+        <v>1640</v>
+      </c>
+      <c r="G63" s="3">
+        <v>650</v>
+      </c>
+      <c r="H63" s="8">
+        <v>650</v>
+      </c>
+      <c r="I63" s="9">
         <v>840</v>
       </c>
-      <c r="G63">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -2417,17 +2875,23 @@
       <c r="D64" t="s">
         <v>59</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>17</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
+        <v>1740</v>
+      </c>
+      <c r="G64" s="3">
+        <v>650</v>
+      </c>
+      <c r="H64" s="8">
+        <v>650</v>
+      </c>
+      <c r="I64" s="9">
         <v>740</v>
       </c>
-      <c r="G64">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -2440,17 +2904,23 @@
       <c r="D65" t="s">
         <v>59</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>18</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
+        <v>1840</v>
+      </c>
+      <c r="G65" s="3">
+        <v>650</v>
+      </c>
+      <c r="H65" s="8">
+        <v>650</v>
+      </c>
+      <c r="I65" s="9">
         <v>640</v>
       </c>
-      <c r="G65">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -2463,17 +2933,23 @@
       <c r="D66" t="s">
         <v>59</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>19</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
+        <v>1940</v>
+      </c>
+      <c r="G66" s="3">
+        <v>650</v>
+      </c>
+      <c r="H66" s="8">
+        <v>650</v>
+      </c>
+      <c r="I66" s="9">
         <v>540</v>
       </c>
-      <c r="G66">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -2486,17 +2962,23 @@
       <c r="D67" t="s">
         <v>59</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>20</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G67" s="3">
+        <v>650</v>
+      </c>
+      <c r="H67" s="8">
+        <v>650</v>
+      </c>
+      <c r="I67" s="9">
         <v>440</v>
       </c>
-      <c r="G67">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -2509,17 +2991,23 @@
       <c r="D68" t="s">
         <v>59</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>21</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
+        <v>2140</v>
+      </c>
+      <c r="G68" s="3">
+        <v>650</v>
+      </c>
+      <c r="H68" s="8">
+        <v>650</v>
+      </c>
+      <c r="I68" s="9">
         <v>340</v>
       </c>
-      <c r="G68">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -2532,17 +3020,23 @@
       <c r="D69" t="s">
         <v>59</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>22</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
+        <v>2240</v>
+      </c>
+      <c r="G69" s="3">
+        <v>650</v>
+      </c>
+      <c r="H69" s="8">
+        <v>650</v>
+      </c>
+      <c r="I69" s="9">
         <v>240</v>
       </c>
-      <c r="G69">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -2555,17 +3049,23 @@
       <c r="D70" t="s">
         <v>59</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>23</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
+        <v>2340</v>
+      </c>
+      <c r="G70" s="3">
+        <v>650</v>
+      </c>
+      <c r="H70" s="8">
+        <v>650</v>
+      </c>
+      <c r="I70" s="9">
         <v>140</v>
       </c>
-      <c r="G70">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -2578,17 +3078,23 @@
       <c r="D71" t="s">
         <v>83</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>1</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="9">
         <v>2340</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" s="8">
+        <v>420</v>
+      </c>
+      <c r="I71" s="9">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -2601,17 +3107,23 @@
       <c r="D72" t="s">
         <v>83</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>2</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="9">
         <v>2240</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" s="8">
+        <v>420</v>
+      </c>
+      <c r="I72" s="9">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -2624,17 +3136,23 @@
       <c r="D73" t="s">
         <v>83</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>3</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="9">
         <v>2140</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="8">
+        <v>420</v>
+      </c>
+      <c r="I73" s="9">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -2647,17 +3165,23 @@
       <c r="D74" t="s">
         <v>83</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>4</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="9">
         <v>2040</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="8">
+        <v>420</v>
+      </c>
+      <c r="I74" s="9">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -2670,17 +3194,23 @@
       <c r="D75" t="s">
         <v>83</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>5</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="9">
         <v>1940</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="8">
+        <v>420</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -2693,17 +3223,23 @@
       <c r="D76" t="s">
         <v>83</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>6</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="9">
         <v>1840</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" s="8">
+        <v>420</v>
+      </c>
+      <c r="I76" s="9">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -2716,17 +3252,23 @@
       <c r="D77" t="s">
         <v>83</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>7</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="9">
         <v>1740</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="8">
+        <v>420</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -2739,17 +3281,23 @@
       <c r="D78" t="s">
         <v>83</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>8</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="9">
         <v>1640</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="8">
+        <v>420</v>
+      </c>
+      <c r="I78" s="9">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -2762,17 +3310,23 @@
       <c r="D79" t="s">
         <v>83</v>
       </c>
-      <c r="E79">
-        <v>9</v>
-      </c>
-      <c r="F79">
+      <c r="E79" s="3">
+        <v>9</v>
+      </c>
+      <c r="F79" s="9">
         <v>1540</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="8">
+        <v>420</v>
+      </c>
+      <c r="I79" s="9">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -2785,17 +3339,23 @@
       <c r="D80" t="s">
         <v>83</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>10</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="9">
         <v>1440</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="8">
+        <v>420</v>
+      </c>
+      <c r="I80" s="9">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -2808,17 +3368,23 @@
       <c r="D81" t="s">
         <v>83</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>11</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="9">
         <v>1340</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" s="8">
+        <v>420</v>
+      </c>
+      <c r="I81" s="9">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -2831,17 +3397,23 @@
       <c r="D82" t="s">
         <v>83</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>12</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="9">
         <v>1240</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" s="8">
+        <v>420</v>
+      </c>
+      <c r="I82" s="9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -2854,17 +3426,23 @@
       <c r="D83" t="s">
         <v>83</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>13</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="9">
         <v>1140</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="8">
+        <v>420</v>
+      </c>
+      <c r="I83" s="9">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -2877,17 +3455,23 @@
       <c r="D84" t="s">
         <v>83</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>14</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="9">
         <v>1040</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" s="8">
+        <v>420</v>
+      </c>
+      <c r="I84" s="9">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -2900,17 +3484,23 @@
       <c r="D85" t="s">
         <v>83</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>15</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="9">
         <v>940</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" s="8">
+        <v>420</v>
+      </c>
+      <c r="I85" s="9">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -2923,17 +3513,23 @@
       <c r="D86" t="s">
         <v>83</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>16</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="9">
         <v>840</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" s="8">
+        <v>420</v>
+      </c>
+      <c r="I86" s="9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -2946,17 +3542,23 @@
       <c r="D87" t="s">
         <v>83</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>17</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="9">
         <v>740</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" s="8">
+        <v>420</v>
+      </c>
+      <c r="I87" s="9">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -2969,17 +3571,23 @@
       <c r="D88" t="s">
         <v>83</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>18</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="9">
         <v>640</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" s="8">
+        <v>420</v>
+      </c>
+      <c r="I88" s="9">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -2992,17 +3600,23 @@
       <c r="D89" t="s">
         <v>83</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>19</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="9">
         <v>540</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" s="8">
+        <v>420</v>
+      </c>
+      <c r="I89" s="9">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -3015,17 +3629,23 @@
       <c r="D90" t="s">
         <v>83</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>20</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="9">
         <v>440</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" s="8">
+        <v>420</v>
+      </c>
+      <c r="I90" s="9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -3038,17 +3658,23 @@
       <c r="D91" t="s">
         <v>83</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>21</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="9">
         <v>340</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" s="8">
+        <v>420</v>
+      </c>
+      <c r="I91" s="9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -3061,17 +3687,23 @@
       <c r="D92" t="s">
         <v>83</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>22</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="9">
         <v>240</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" s="8">
+        <v>420</v>
+      </c>
+      <c r="I92" s="9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -3084,17 +3716,23 @@
       <c r="D93" t="s">
         <v>83</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>23</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="9">
         <v>140</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <v>420</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" s="8">
+        <v>420</v>
+      </c>
+      <c r="I93" s="9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -3107,17 +3745,23 @@
       <c r="D94" t="s">
         <v>107</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>1</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="9">
         <v>2340</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" s="8">
+        <v>375</v>
+      </c>
+      <c r="I94" s="9">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -3130,17 +3774,23 @@
       <c r="D95" t="s">
         <v>107</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>2</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="9">
         <v>2240</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" s="8">
+        <v>375</v>
+      </c>
+      <c r="I95" s="9">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -3153,17 +3803,23 @@
       <c r="D96" t="s">
         <v>107</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>3</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="9">
         <v>2140</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" s="8">
+        <v>375</v>
+      </c>
+      <c r="I96" s="9">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -3176,17 +3832,23 @@
       <c r="D97" t="s">
         <v>107</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>4</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="9">
         <v>2040</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" s="8">
+        <v>375</v>
+      </c>
+      <c r="I97" s="9">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -3199,17 +3861,23 @@
       <c r="D98" t="s">
         <v>107</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>5</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="9">
         <v>1940</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" s="8">
+        <v>375</v>
+      </c>
+      <c r="I98" s="9">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -3222,17 +3890,23 @@
       <c r="D99" t="s">
         <v>107</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>6</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="9">
         <v>1840</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" s="8">
+        <v>375</v>
+      </c>
+      <c r="I99" s="9">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -3245,17 +3919,23 @@
       <c r="D100" t="s">
         <v>107</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>7</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="9">
         <v>1740</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" s="8">
+        <v>375</v>
+      </c>
+      <c r="I100" s="9">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -3268,17 +3948,23 @@
       <c r="D101" t="s">
         <v>107</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>8</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="9">
         <v>1640</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" s="8">
+        <v>375</v>
+      </c>
+      <c r="I101" s="9">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -3291,17 +3977,23 @@
       <c r="D102" t="s">
         <v>107</v>
       </c>
-      <c r="E102">
-        <v>9</v>
-      </c>
-      <c r="F102">
+      <c r="E102" s="3">
+        <v>9</v>
+      </c>
+      <c r="F102" s="9">
         <v>1540</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" s="8">
+        <v>375</v>
+      </c>
+      <c r="I102" s="9">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -3314,17 +4006,23 @@
       <c r="D103" t="s">
         <v>107</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>10</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="9">
         <v>1440</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" s="8">
+        <v>375</v>
+      </c>
+      <c r="I103" s="9">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -3337,17 +4035,23 @@
       <c r="D104" t="s">
         <v>107</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>11</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="9">
         <v>1340</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" s="8">
+        <v>375</v>
+      </c>
+      <c r="I104" s="9">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -3360,17 +4064,23 @@
       <c r="D105" t="s">
         <v>107</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>12</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="9">
         <v>1240</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" s="8">
+        <v>375</v>
+      </c>
+      <c r="I105" s="9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -3383,17 +4093,23 @@
       <c r="D106" t="s">
         <v>107</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>13</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="9">
         <v>1140</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" s="8">
+        <v>375</v>
+      </c>
+      <c r="I106" s="9">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -3406,17 +4122,23 @@
       <c r="D107" t="s">
         <v>107</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>14</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="9">
         <v>1040</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" s="8">
+        <v>375</v>
+      </c>
+      <c r="I107" s="9">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -3429,17 +4151,23 @@
       <c r="D108" t="s">
         <v>107</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>15</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="9">
         <v>940</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" s="8">
+        <v>375</v>
+      </c>
+      <c r="I108" s="9">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -3452,17 +4180,23 @@
       <c r="D109" t="s">
         <v>107</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>16</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="9">
         <v>840</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" s="8">
+        <v>375</v>
+      </c>
+      <c r="I109" s="9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -3475,17 +4209,23 @@
       <c r="D110" t="s">
         <v>107</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>17</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="9">
         <v>740</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" s="8">
+        <v>375</v>
+      </c>
+      <c r="I110" s="9">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -3498,17 +4238,23 @@
       <c r="D111" t="s">
         <v>107</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>18</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="9">
         <v>640</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" s="8">
+        <v>375</v>
+      </c>
+      <c r="I111" s="9">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -3521,17 +4267,23 @@
       <c r="D112" t="s">
         <v>107</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>19</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="9">
         <v>540</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" s="8">
+        <v>375</v>
+      </c>
+      <c r="I112" s="9">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -3544,17 +4296,23 @@
       <c r="D113" t="s">
         <v>107</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>20</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="9">
         <v>440</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" s="8">
+        <v>375</v>
+      </c>
+      <c r="I113" s="9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -3567,17 +4325,23 @@
       <c r="D114" t="s">
         <v>107</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>21</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="9">
         <v>340</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" s="8">
+        <v>375</v>
+      </c>
+      <c r="I114" s="9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -3590,17 +4354,23 @@
       <c r="D115" t="s">
         <v>107</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>22</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="9">
         <v>240</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" s="8">
+        <v>375</v>
+      </c>
+      <c r="I115" s="9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -3613,17 +4383,23 @@
       <c r="D116" t="s">
         <v>107</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>23</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="9">
         <v>140</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
         <v>375</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" s="8">
+        <v>375</v>
+      </c>
+      <c r="I116" s="9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -3636,17 +4412,46 @@
       <c r="D117" t="s">
         <v>131</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>1</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
+        <v>140</v>
+      </c>
+      <c r="G117" s="3">
+        <v>120</v>
+      </c>
+      <c r="H117" s="8">
+        <v>120</v>
+      </c>
+      <c r="I117" s="9">
         <v>2340</v>
       </c>
-      <c r="G117">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
+      <c r="AD117" s="3"/>
+      <c r="AE117" s="3"/>
+      <c r="AF117" s="3"/>
+    </row>
+    <row r="118" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -3659,17 +4464,23 @@
       <c r="D118" t="s">
         <v>131</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>2</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
+        <v>240</v>
+      </c>
+      <c r="G118" s="3">
+        <v>120</v>
+      </c>
+      <c r="H118" s="8">
+        <v>120</v>
+      </c>
+      <c r="I118" s="9">
         <v>2240</v>
       </c>
-      <c r="G118">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -3682,17 +4493,25 @@
       <c r="D119" t="s">
         <v>131</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="3">
         <v>3</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
+        <v>340</v>
+      </c>
+      <c r="G119" s="3">
+        <v>120</v>
+      </c>
+      <c r="H119" s="8">
+        <v>120</v>
+      </c>
+      <c r="I119" s="9">
         <v>2140</v>
       </c>
-      <c r="G119">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J119" s="3"/>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -3705,17 +4524,25 @@
       <c r="D120" t="s">
         <v>131</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <v>4</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="3">
+        <v>440</v>
+      </c>
+      <c r="G120" s="3">
+        <v>120</v>
+      </c>
+      <c r="H120" s="8">
+        <v>120</v>
+      </c>
+      <c r="I120" s="9">
         <v>2040</v>
       </c>
-      <c r="G120">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J120" s="3"/>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -3728,17 +4555,28 @@
       <c r="D121" t="s">
         <v>131</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <v>5</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
+        <v>540</v>
+      </c>
+      <c r="G121" s="3">
+        <v>120</v>
+      </c>
+      <c r="H121" s="8">
+        <v>120</v>
+      </c>
+      <c r="I121" s="9">
         <v>1940</v>
       </c>
-      <c r="G121">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J121" s="3"/>
+      <c r="K121" s="4"/>
+      <c r="P121" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -3751,17 +4589,28 @@
       <c r="D122" t="s">
         <v>131</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="3">
         <v>6</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="3">
+        <v>640</v>
+      </c>
+      <c r="G122" s="3">
+        <v>120</v>
+      </c>
+      <c r="H122" s="8">
+        <v>120</v>
+      </c>
+      <c r="I122" s="9">
         <v>1840</v>
       </c>
-      <c r="G122">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J122" s="3"/>
+      <c r="K122" s="4"/>
+      <c r="P122" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -3774,17 +4623,28 @@
       <c r="D123" t="s">
         <v>131</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <v>7</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
+        <v>740</v>
+      </c>
+      <c r="G123" s="3">
+        <v>120</v>
+      </c>
+      <c r="H123" s="8">
+        <v>120</v>
+      </c>
+      <c r="I123" s="9">
         <v>1740</v>
       </c>
-      <c r="G123">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J123" s="3"/>
+      <c r="K123" s="4"/>
+      <c r="P123" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -3797,17 +4657,28 @@
       <c r="D124" t="s">
         <v>131</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>8</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
+        <v>840</v>
+      </c>
+      <c r="G124" s="3">
+        <v>120</v>
+      </c>
+      <c r="H124" s="8">
+        <v>120</v>
+      </c>
+      <c r="I124" s="9">
         <v>1640</v>
       </c>
-      <c r="G124">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J124" s="3"/>
+      <c r="K124" s="4"/>
+      <c r="P124" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -3820,17 +4691,28 @@
       <c r="D125" t="s">
         <v>131</v>
       </c>
-      <c r="E125">
-        <v>9</v>
-      </c>
-      <c r="F125">
+      <c r="E125" s="3">
+        <v>9</v>
+      </c>
+      <c r="F125" s="3">
+        <v>940</v>
+      </c>
+      <c r="G125" s="3">
+        <v>120</v>
+      </c>
+      <c r="H125" s="8">
+        <v>120</v>
+      </c>
+      <c r="I125" s="9">
         <v>1540</v>
       </c>
-      <c r="G125">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J125" s="3"/>
+      <c r="K125" s="4"/>
+      <c r="P125" s="3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -3843,17 +4725,28 @@
       <c r="D126" t="s">
         <v>131</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>10</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
+        <v>1040</v>
+      </c>
+      <c r="G126" s="3">
+        <v>120</v>
+      </c>
+      <c r="H126" s="8">
+        <v>120</v>
+      </c>
+      <c r="I126" s="9">
         <v>1440</v>
       </c>
-      <c r="G126">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J126" s="3"/>
+      <c r="K126" s="4"/>
+      <c r="P126" s="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -3866,17 +4759,28 @@
       <c r="D127" t="s">
         <v>131</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <v>11</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
+        <v>1140</v>
+      </c>
+      <c r="G127" s="3">
+        <v>120</v>
+      </c>
+      <c r="H127" s="8">
+        <v>120</v>
+      </c>
+      <c r="I127" s="9">
         <v>1340</v>
       </c>
-      <c r="G127">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J127" s="3"/>
+      <c r="K127" s="4"/>
+      <c r="P127" s="3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -3889,17 +4793,28 @@
       <c r="D128" t="s">
         <v>131</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <v>12</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="3">
         <v>1240</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" s="8">
+        <v>120</v>
+      </c>
+      <c r="I128" s="9">
+        <v>1240</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="4"/>
+      <c r="P128" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -3912,17 +4827,28 @@
       <c r="D129" t="s">
         <v>131</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <v>13</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="3">
+        <v>1340</v>
+      </c>
+      <c r="G129" s="3">
+        <v>120</v>
+      </c>
+      <c r="H129" s="8">
+        <v>120</v>
+      </c>
+      <c r="I129" s="9">
         <v>1140</v>
       </c>
-      <c r="G129">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J129" s="3"/>
+      <c r="K129" s="4"/>
+      <c r="P129" s="3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -3935,17 +4861,28 @@
       <c r="D130" t="s">
         <v>131</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <v>14</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
+        <v>1440</v>
+      </c>
+      <c r="G130" s="3">
+        <v>120</v>
+      </c>
+      <c r="H130" s="8">
+        <v>120</v>
+      </c>
+      <c r="I130" s="9">
         <v>1040</v>
       </c>
-      <c r="G130">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J130" s="3"/>
+      <c r="K130" s="4"/>
+      <c r="P130" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -3958,17 +4895,28 @@
       <c r="D131" t="s">
         <v>131</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <v>15</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="3">
+        <v>1540</v>
+      </c>
+      <c r="G131" s="3">
+        <v>120</v>
+      </c>
+      <c r="H131" s="8">
+        <v>120</v>
+      </c>
+      <c r="I131" s="9">
         <v>940</v>
       </c>
-      <c r="G131">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J131" s="3"/>
+      <c r="K131" s="4"/>
+      <c r="P131" s="3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -3981,17 +4929,28 @@
       <c r="D132" t="s">
         <v>131</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <v>16</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="3">
+        <v>1640</v>
+      </c>
+      <c r="G132" s="3">
+        <v>120</v>
+      </c>
+      <c r="H132" s="8">
+        <v>120</v>
+      </c>
+      <c r="I132" s="9">
         <v>840</v>
       </c>
-      <c r="G132">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J132" s="3"/>
+      <c r="K132" s="4"/>
+      <c r="P132" s="3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -4004,17 +4963,28 @@
       <c r="D133" t="s">
         <v>131</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <v>17</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
+        <v>1740</v>
+      </c>
+      <c r="G133" s="3">
+        <v>120</v>
+      </c>
+      <c r="H133" s="8">
+        <v>120</v>
+      </c>
+      <c r="I133" s="9">
         <v>740</v>
       </c>
-      <c r="G133">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J133" s="3"/>
+      <c r="K133" s="4"/>
+      <c r="P133" s="3">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -4027,17 +4997,28 @@
       <c r="D134" t="s">
         <v>131</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <v>18</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
+        <v>1840</v>
+      </c>
+      <c r="G134" s="3">
+        <v>120</v>
+      </c>
+      <c r="H134" s="8">
+        <v>120</v>
+      </c>
+      <c r="I134" s="9">
         <v>640</v>
       </c>
-      <c r="G134">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J134" s="3"/>
+      <c r="K134" s="4"/>
+      <c r="P134" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -4050,17 +5031,28 @@
       <c r="D135" t="s">
         <v>131</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <v>19</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="3">
+        <v>1940</v>
+      </c>
+      <c r="G135" s="3">
+        <v>120</v>
+      </c>
+      <c r="H135" s="8">
+        <v>120</v>
+      </c>
+      <c r="I135" s="9">
         <v>540</v>
       </c>
-      <c r="G135">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J135" s="3"/>
+      <c r="K135" s="4"/>
+      <c r="P135" s="3">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -4073,17 +5065,28 @@
       <c r="D136" t="s">
         <v>131</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="3">
         <v>20</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G136" s="3">
+        <v>120</v>
+      </c>
+      <c r="H136" s="8">
+        <v>120</v>
+      </c>
+      <c r="I136" s="9">
         <v>440</v>
       </c>
-      <c r="G136">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J136" s="3"/>
+      <c r="K136" s="4"/>
+      <c r="P136" s="3">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -4096,17 +5099,28 @@
       <c r="D137" t="s">
         <v>131</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="3">
         <v>21</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="3">
+        <v>2140</v>
+      </c>
+      <c r="G137" s="3">
+        <v>120</v>
+      </c>
+      <c r="H137" s="8">
+        <v>120</v>
+      </c>
+      <c r="I137" s="9">
         <v>340</v>
       </c>
-      <c r="G137">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J137" s="3"/>
+      <c r="K137" s="4"/>
+      <c r="P137" s="3">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -4119,17 +5133,28 @@
       <c r="D138" t="s">
         <v>131</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="3">
         <v>22</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="3">
+        <v>2240</v>
+      </c>
+      <c r="G138" s="3">
+        <v>120</v>
+      </c>
+      <c r="H138" s="8">
+        <v>120</v>
+      </c>
+      <c r="I138" s="9">
         <v>240</v>
       </c>
-      <c r="G138">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J138" s="3"/>
+      <c r="K138" s="4"/>
+      <c r="P138" s="3">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -4142,17 +5167,28 @@
       <c r="D139" t="s">
         <v>131</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <v>23</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="3">
+        <v>2340</v>
+      </c>
+      <c r="G139" s="3">
+        <v>120</v>
+      </c>
+      <c r="H139" s="8">
+        <v>120</v>
+      </c>
+      <c r="I139" s="9">
         <v>140</v>
       </c>
-      <c r="G139">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J139" s="3"/>
+      <c r="K139" s="4"/>
+      <c r="P139" s="3">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -4165,17 +5201,28 @@
       <c r="D140" t="s">
         <v>155</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <v>1</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="3">
+        <v>140</v>
+      </c>
+      <c r="G140" s="3">
+        <v>75</v>
+      </c>
+      <c r="H140" s="8">
+        <v>75</v>
+      </c>
+      <c r="I140" s="9">
         <v>2340</v>
       </c>
-      <c r="G140">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J140" s="3"/>
+      <c r="K140" s="4"/>
+      <c r="P140" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>156</v>
       </c>
@@ -4188,17 +5235,28 @@
       <c r="D141" t="s">
         <v>155</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="3">
         <v>2</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="3">
+        <v>240</v>
+      </c>
+      <c r="G141" s="3">
+        <v>75</v>
+      </c>
+      <c r="H141" s="8">
+        <v>75</v>
+      </c>
+      <c r="I141" s="9">
         <v>2240</v>
       </c>
-      <c r="G141">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J141" s="3"/>
+      <c r="K141" s="4"/>
+      <c r="P141" s="3">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -4211,17 +5269,26 @@
       <c r="D142" t="s">
         <v>155</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <v>3</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="3">
+        <v>340</v>
+      </c>
+      <c r="G142" s="3">
+        <v>75</v>
+      </c>
+      <c r="H142" s="8">
+        <v>75</v>
+      </c>
+      <c r="I142" s="9">
         <v>2140</v>
       </c>
-      <c r="G142">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P142" s="3">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -4234,17 +5301,26 @@
       <c r="D143" t="s">
         <v>155</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <v>4</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="3">
+        <v>440</v>
+      </c>
+      <c r="G143" s="3">
+        <v>75</v>
+      </c>
+      <c r="H143" s="8">
+        <v>75</v>
+      </c>
+      <c r="I143" s="9">
         <v>2040</v>
       </c>
-      <c r="G143">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="P143" s="3">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>159</v>
       </c>
@@ -4257,17 +5333,23 @@
       <c r="D144" t="s">
         <v>155</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="3">
         <v>5</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="3">
+        <v>540</v>
+      </c>
+      <c r="G144" s="3">
+        <v>75</v>
+      </c>
+      <c r="H144" s="8">
+        <v>75</v>
+      </c>
+      <c r="I144" s="9">
         <v>1940</v>
       </c>
-      <c r="G144">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>160</v>
       </c>
@@ -4280,17 +5362,23 @@
       <c r="D145" t="s">
         <v>155</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="3">
         <v>6</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
+        <v>640</v>
+      </c>
+      <c r="G145" s="3">
+        <v>75</v>
+      </c>
+      <c r="H145" s="8">
+        <v>75</v>
+      </c>
+      <c r="I145" s="9">
         <v>1840</v>
       </c>
-      <c r="G145">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -4303,17 +5391,23 @@
       <c r="D146" t="s">
         <v>155</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="3">
         <v>7</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="3">
+        <v>740</v>
+      </c>
+      <c r="G146" s="3">
+        <v>75</v>
+      </c>
+      <c r="H146" s="8">
+        <v>75</v>
+      </c>
+      <c r="I146" s="9">
         <v>1740</v>
       </c>
-      <c r="G146">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>162</v>
       </c>
@@ -4326,17 +5420,23 @@
       <c r="D147" t="s">
         <v>155</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="3">
         <v>8</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="3">
+        <v>840</v>
+      </c>
+      <c r="G147" s="3">
+        <v>75</v>
+      </c>
+      <c r="H147" s="8">
+        <v>75</v>
+      </c>
+      <c r="I147" s="9">
         <v>1640</v>
       </c>
-      <c r="G147">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>163</v>
       </c>
@@ -4349,17 +5449,23 @@
       <c r="D148" t="s">
         <v>155</v>
       </c>
-      <c r="E148">
-        <v>9</v>
-      </c>
-      <c r="F148">
+      <c r="E148" s="3">
+        <v>9</v>
+      </c>
+      <c r="F148" s="3">
+        <v>940</v>
+      </c>
+      <c r="G148" s="3">
+        <v>75</v>
+      </c>
+      <c r="H148" s="8">
+        <v>75</v>
+      </c>
+      <c r="I148" s="9">
         <v>1540</v>
       </c>
-      <c r="G148">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>164</v>
       </c>
@@ -4372,17 +5478,23 @@
       <c r="D149" t="s">
         <v>155</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="3">
         <v>10</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="3">
+        <v>1040</v>
+      </c>
+      <c r="G149" s="3">
+        <v>75</v>
+      </c>
+      <c r="H149" s="8">
+        <v>75</v>
+      </c>
+      <c r="I149" s="9">
         <v>1440</v>
       </c>
-      <c r="G149">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>165</v>
       </c>
@@ -4395,17 +5507,23 @@
       <c r="D150" t="s">
         <v>155</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="3">
         <v>11</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="3">
+        <v>1140</v>
+      </c>
+      <c r="G150" s="3">
+        <v>75</v>
+      </c>
+      <c r="H150" s="8">
+        <v>75</v>
+      </c>
+      <c r="I150" s="9">
         <v>1340</v>
       </c>
-      <c r="G150">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -4418,17 +5536,23 @@
       <c r="D151" t="s">
         <v>155</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="3">
         <v>12</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="3">
         <v>1240</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" s="8">
+        <v>75</v>
+      </c>
+      <c r="I151" s="9">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -4441,17 +5565,23 @@
       <c r="D152" t="s">
         <v>155</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="3">
         <v>13</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="3">
+        <v>1340</v>
+      </c>
+      <c r="G152" s="3">
+        <v>75</v>
+      </c>
+      <c r="H152" s="8">
+        <v>75</v>
+      </c>
+      <c r="I152" s="9">
         <v>1140</v>
       </c>
-      <c r="G152">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -4464,17 +5594,23 @@
       <c r="D153" t="s">
         <v>155</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="3">
         <v>14</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="3">
+        <v>1440</v>
+      </c>
+      <c r="G153" s="3">
+        <v>75</v>
+      </c>
+      <c r="H153" s="8">
+        <v>75</v>
+      </c>
+      <c r="I153" s="9">
         <v>1040</v>
       </c>
-      <c r="G153">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>169</v>
       </c>
@@ -4487,17 +5623,23 @@
       <c r="D154" t="s">
         <v>155</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="3">
         <v>15</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="3">
+        <v>1540</v>
+      </c>
+      <c r="G154" s="3">
+        <v>75</v>
+      </c>
+      <c r="H154" s="8">
+        <v>75</v>
+      </c>
+      <c r="I154" s="9">
         <v>940</v>
       </c>
-      <c r="G154">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>170</v>
       </c>
@@ -4510,17 +5652,23 @@
       <c r="D155" t="s">
         <v>155</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="3">
         <v>16</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="3">
+        <v>1640</v>
+      </c>
+      <c r="G155" s="3">
+        <v>75</v>
+      </c>
+      <c r="H155" s="8">
+        <v>75</v>
+      </c>
+      <c r="I155" s="9">
         <v>840</v>
       </c>
-      <c r="G155">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>171</v>
       </c>
@@ -4533,17 +5681,23 @@
       <c r="D156" t="s">
         <v>155</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="3">
         <v>17</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="3">
+        <v>1740</v>
+      </c>
+      <c r="G156" s="3">
+        <v>75</v>
+      </c>
+      <c r="H156" s="8">
+        <v>75</v>
+      </c>
+      <c r="I156" s="9">
         <v>740</v>
       </c>
-      <c r="G156">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -4556,17 +5710,23 @@
       <c r="D157" t="s">
         <v>155</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="3">
         <v>18</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="3">
+        <v>1840</v>
+      </c>
+      <c r="G157" s="3">
+        <v>75</v>
+      </c>
+      <c r="H157" s="8">
+        <v>75</v>
+      </c>
+      <c r="I157" s="9">
         <v>640</v>
       </c>
-      <c r="G157">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -4579,17 +5739,23 @@
       <c r="D158" t="s">
         <v>155</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="3">
         <v>19</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="3">
+        <v>1940</v>
+      </c>
+      <c r="G158" s="3">
+        <v>75</v>
+      </c>
+      <c r="H158" s="8">
+        <v>75</v>
+      </c>
+      <c r="I158" s="9">
         <v>540</v>
       </c>
-      <c r="G158">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>174</v>
       </c>
@@ -4602,17 +5768,23 @@
       <c r="D159" t="s">
         <v>155</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="3">
         <v>20</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G159" s="3">
+        <v>75</v>
+      </c>
+      <c r="H159" s="8">
+        <v>75</v>
+      </c>
+      <c r="I159" s="9">
         <v>440</v>
       </c>
-      <c r="G159">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>175</v>
       </c>
@@ -4625,17 +5797,23 @@
       <c r="D160" t="s">
         <v>155</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="3">
         <v>21</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="3">
+        <v>2140</v>
+      </c>
+      <c r="G160" s="3">
+        <v>75</v>
+      </c>
+      <c r="H160" s="8">
+        <v>75</v>
+      </c>
+      <c r="I160" s="9">
         <v>340</v>
       </c>
-      <c r="G160">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>176</v>
       </c>
@@ -4648,17 +5826,23 @@
       <c r="D161" t="s">
         <v>155</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="3">
         <v>22</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="3">
+        <v>2240</v>
+      </c>
+      <c r="G161" s="3">
+        <v>75</v>
+      </c>
+      <c r="H161" s="8">
+        <v>75</v>
+      </c>
+      <c r="I161" s="9">
         <v>240</v>
       </c>
-      <c r="G161">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>177</v>
       </c>
@@ -4671,96 +5855,325 @@
       <c r="D162" t="s">
         <v>155</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="3">
         <v>23</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="3">
+        <v>2340</v>
+      </c>
+      <c r="G162" s="3">
+        <v>75</v>
+      </c>
+      <c r="H162" s="8">
+        <v>75</v>
+      </c>
+      <c r="I162" s="9">
         <v>140</v>
       </c>
-      <c r="G162">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>178</v>
+      </c>
+      <c r="F163" s="3">
+        <v>30</v>
+      </c>
+      <c r="G163" s="3">
+        <v>830</v>
+      </c>
+      <c r="H163" s="8">
+        <v>830</v>
+      </c>
+      <c r="I163" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>179</v>
+      </c>
+      <c r="F164" s="3">
+        <v>30</v>
+      </c>
+      <c r="G164" s="3">
+        <v>700</v>
+      </c>
+      <c r="H164" s="8">
+        <v>700</v>
+      </c>
+      <c r="I164" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>180</v>
       </c>
-      <c r="F163">
+      <c r="F165" s="3">
         <v>30</v>
       </c>
-      <c r="G163">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="G165" s="3">
+        <v>650</v>
+      </c>
+      <c r="H165" s="8">
+        <v>650</v>
+      </c>
+      <c r="I165" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>181</v>
       </c>
-      <c r="F164">
+      <c r="F166" s="3">
         <v>30</v>
       </c>
-      <c r="G164">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>178</v>
-      </c>
-      <c r="F165">
+      <c r="G166" s="3">
+        <v>420</v>
+      </c>
+      <c r="H166" s="8">
+        <v>420</v>
+      </c>
+      <c r="I166" s="9">
         <v>30</v>
       </c>
-      <c r="G165">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    </row>
+    <row r="167" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>182</v>
       </c>
-      <c r="F166">
+      <c r="F167" s="3">
         <v>30</v>
       </c>
-      <c r="G166">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>179</v>
-      </c>
-      <c r="F167">
+      <c r="G167" s="3">
+        <v>375</v>
+      </c>
+      <c r="H167" s="8">
+        <v>375</v>
+      </c>
+      <c r="I167" s="9">
         <v>30</v>
       </c>
-      <c r="G167">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>183</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="3">
         <v>30</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168" s="8">
+        <v>120</v>
+      </c>
+      <c r="I168" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>184</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="3">
         <v>30</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="3">
         <v>75</v>
       </c>
+      <c r="H169" s="8">
+        <v>75</v>
+      </c>
+      <c r="I169" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>185</v>
+      </c>
+      <c r="F170" s="3">
+        <v>50</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="8">
+        <v>0</v>
+      </c>
+      <c r="I170" s="9">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6799D6-9DF0-C344-8CE2-CA6115C71388}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>2340</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B24" xr:uid="{AC6799D6-9DF0-C344-8CE2-CA6115C71388}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B24">
+      <sortCondition ref="B1:B24"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>